--- a/src/test/resources/Testdata/TestData.xlsx
+++ b/src/test/resources/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/Testdata/TestData.xlsx
+++ b/src/test/resources/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>Brand</t>
   </si>
@@ -383,7 +383,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
